--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -67,6 +67,174 @@
   </si>
   <si>
     <t>SCRIPT/T01P01A/us3106.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SCRIPT/T01P01A/us0202.ssb</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0208.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m [CS:N]Ursaring[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I haven\'t gotten used to\nthings yet…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я [CS:N]Урсаринг[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я пока ещё к этому не привык...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ [CS:N]Ôñòàñéîã[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ ðïëà åþæ ë üóïíô îå ðñéâúë...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good morning.[K] It\'s a nice day\nout again.</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0307.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро.[K] Сегодня хороший\nдень.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï.[K] Òåãïäîÿ öïñïšéê\näåîû.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Oh! What a cutie!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Why is that little cutie\nwith you?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ой! Какой миленький!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Почему этот милашка гуляет с\nвами?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ïê! Ëàëïê íéìåîûëéê!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïœåíô üóïó íéìàšëà ãôìÿåó ò\nâàíé?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That little cutie disappeared?\nThe one we saw yesterday?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Тот милашка малыш исчез?\nТот самый, которого мы видели вчера?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Óïó íéìàšëà íàìúš éòœåè?\nÓïó òàíúê, ëïóïñïãï íú âéäåìé âœåñà?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pardon?[K] That cutie\'s fallen ill?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s really worrisome...[K] I hope\nthat cutie gets better soon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что?[K] Милашка заболел?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Как ужасно...[K] Надеюсь, что он\nскоро выздоровеет.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï?[K] Íéìàšëà èàáïìåì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë ôçàòîï...[K] Îàäåýòû, œóï ïî\nòëïñï âúèäïñïâååó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Our environment was too\ndifferent from the one [CS:N]Manaphy[CR] needs…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cheer up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Наша среда совсем не подходила\n[CS:N]Манафи[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выше нос.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îàšà òñåäà òïâòåí îå ðïäöïäéìà\n[CS:N]Íàîàõé[CR]...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúšå îïò.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Good morning, [hero] and\n[partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0309.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Доброе утро, [hero]\nи [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Äïáñïå ôóñï, [hero]\né [partner]!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us0402.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If nothing can be done, it won\'t\njust be [CS:N]Azurill[CR]! All Pokémon will get locked up\nin sleep forever!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'s a crisis!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2102.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если ничего не предпринять, то\nне только [CS:N]Азурилл[CR], а все Покемоны уснут\nнавсегда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это катастрофа!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé îéœåãï îå ðñåäðñéîÿóû, óï\nîå óïìûëï [CS:N]Àèôñéìì[CR], à âòå Ðïëåíïîú ôòîôó\nîàâòåãäà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ëàóàòóñïõà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Don\'t let that scheming [CS:N]Darkrai[CR]\nbeat you!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2202.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Не позволяйте обманщику\n[CS:N]Даркраю[CR] вас победить!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Îå ðïèâïìÿêóå ïáíàîþéëô\n[CS:N]Äàñëñàý[CR] âàò ðïáåäéóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thank you so much!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your team is so cool!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2211.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Спасибо огромное!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы - невероятно крутая команда!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òðàòéáï ïãñïíîïå!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú - îåâåñïÿóîï ëñôóàÿ ëïíàîäà!</t>
   </si>
 </sst>
 </file>
@@ -97,7 +265,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -129,11 +297,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -148,6 +345,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -430,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,18 +712,275 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+    <row r="4" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
         <v>256</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>228</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8">
+        <v>231</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10">
+        <v>209</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>187</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="8">
+        <v>190</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>168</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>146</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="8">
+        <v>149</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>124</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8">
+        <v>127</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="4">
+        <v>105</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="4">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
+        <v>86</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="10">
+        <v>64</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="4">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>45</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Урсаринг 2.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Урсаринг 2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -235,6 +235,27 @@
   </si>
   <si>
     <t xml:space="preserve"> Âú - îåâåñïÿóîï ëñôóàÿ ëïíàîäà!</t>
+  </si>
+  <si>
+    <t>SCRIPT/T01P01A/us2306.ssb</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There\'s something different\nabout [CS:P]Luminous Spring[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It still looks the same...[K]\nBut I know it\'s not just my imagination.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что-то изменилось в [CS:P]Сияющем\nИсточнике[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выглядит он также...[K] Но я уверен,\nмне не показалось.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï-óï éèíåîéìïòû â [CS:P]Òéÿýþåí\nÉòóïœîéëå[CR].</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúãìÿäéó ïî óàëçå...[K] Îï ÿ ôâåñåî,\níîå îå ðïëàèàìïòû.</t>
   </si>
 </sst>
 </file>
@@ -645,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -969,18 +990,49 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+    <row r="21" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="8">
         <v>45</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="9" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="4">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
